--- a/第一回レビュー内容報告書.xlsx
+++ b/第一回レビュー内容報告書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F86BC1-949F-44C3-82F7-A0846CF05471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18E0E7-5C3C-4558-A823-162C5B9BD39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14565" windowHeight="10905" xr2:uid="{3E66C251-69F0-4312-A821-BA8CB380A20C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E66C251-69F0-4312-A821-BA8CB380A20C}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー内容報告書" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -189,23 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ユーザ」ではなく、「社員」では？</t>
-    <rPh sb="11" eb="13">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年月を前画面で選択するようにしてほしい</t>
-    <rPh sb="3" eb="6">
-      <t>マエガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[勤務時間計算タイトル]を"〇月分勤務時間計算"と表示してほしい</t>
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
@@ -213,10 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻るボタン押下時、確認画面表示してほしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ユーザの勤務地」を「ユーザと勤務地の紐づけ」に変更してほしい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,32 +227,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一時保存ボタンがほしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力しなくていい項目というのが分かりやすいようにしてほしい</t>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ管理画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDじゃなくて社員番号にしてほしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有休数の項目が自動更新ではないなら、いらないのでは？</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ジドウコウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -297,48 +251,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDじゃなくて勤務地IDにしてほしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除フラグチェックボックスはいらないのでは？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ勤務先</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務IDを勤務地IDにしてほしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>契約IDを契約形態にしてほしい</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カレンダー画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>祝日の登録が一個ずつしかできないのは、実際に使うにはめんどくさいのでは？</t>
-    <rPh sb="0" eb="2">
-      <t>シュクジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,12 +374,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[User]の表記を[Member]に変更してほしい</t>
+    <t>[戻る]ボタン押下時、確認画面表示してほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[年月]を前画面で選択するようにしてほしい</t>
+    <rPh sb="5" eb="8">
+      <t>マエガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力しなくていい項目が分かりやすいようにしてほしい</t>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[一時保存]ボタンがほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ID]じゃなくて[社員番号]にしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[有休数]の項目が自動更新ではないなら、いらないのでは？</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ジドウコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ID]じゃなくて[勤務地ID]にしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝日の登録が一個ずつしかできないのは、実際に使う時にめんどくさいのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[User]の表記を[staff]に変更してほしい</t>
     <rPh sb="7" eb="9">
       <t>ヒョウキ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="18" eb="20">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[勤務ID]を[勤務地ID]にしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[契約ID]を[契約形態]にしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグチェックボックス]はいらないのでは？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグ]の列いらないのでは？</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザ]ではなく、[社員]にする</t>
+    <rPh sb="11" eb="13">
+      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,12 +690,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,101 +801,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,282 +1124,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53315CA4-7C29-4F28-B97A-A395386FEF44}">
-  <dimension ref="B3:AU38"/>
+  <dimension ref="B3:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="2:47" ht="42" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="14" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="7" t="s">
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="14" t="s">
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10" t="s">
+      <c r="W5" s="36"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="19" t="s">
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="11" t="s">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="25" t="s">
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="27"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="14" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="7">
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38">
         <v>45131</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="14" t="s">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="30"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="21"/>
     </row>
     <row r="8" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="14" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="18" t="s">
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
     </row>
     <row r="9" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="19" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="21"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1403,36 +1422,36 @@
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="39"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1455,50 +1474,50 @@
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="5" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
@@ -1507,18 +1526,18 @@
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1559,42 +1578,42 @@
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="M13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
@@ -1615,20 +1634,20 @@
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1669,18 +1688,18 @@
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1721,18 +1740,18 @@
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1773,18 +1792,18 @@
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1825,18 +1844,18 @@
       <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1857,18 +1876,18 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
@@ -1877,18 +1896,18 @@
       <c r="B19" s="2">
         <v>11</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1909,18 +1928,18 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
@@ -1929,18 +1948,18 @@
       <c r="B20" s="2">
         <v>12</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1961,18 +1980,18 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
@@ -1981,18 +2000,18 @@
       <c r="B21" s="2">
         <v>13</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2013,18 +2032,18 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
@@ -2033,20 +2052,20 @@
       <c r="B22" s="2">
         <v>14</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2067,18 +2086,18 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
@@ -2087,18 +2106,18 @@
       <c r="B23" s="2">
         <v>15</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2119,18 +2138,18 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -2139,18 +2158,18 @@
       <c r="B24" s="2">
         <v>16</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2171,18 +2190,18 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -2191,20 +2210,20 @@
       <c r="B25" s="2">
         <v>17</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2225,18 +2244,18 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -2245,18 +2264,18 @@
       <c r="B26" s="2">
         <v>18</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2277,18 +2296,18 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -2297,20 +2316,20 @@
       <c r="B27" s="2">
         <v>19</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2331,18 +2350,18 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -2351,18 +2370,18 @@
       <c r="B28" s="2">
         <v>20</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2383,18 +2402,18 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
@@ -2403,20 +2422,20 @@
       <c r="B29" s="2">
         <v>21</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2437,18 +2456,18 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
@@ -2457,14 +2476,14 @@
       <c r="B30" s="2">
         <v>22</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="4" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2491,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2493,18 +2512,18 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
@@ -2513,20 +2532,20 @@
       <c r="B31" s="2">
         <v>23</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2547,38 +2566,36 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B32" s="2">
-        <v>24</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2599,40 +2616,38 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
     <row r="33" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B33" s="2">
-        <v>25</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2653,40 +2668,40 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="2:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
-        <v>26</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2707,40 +2722,40 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="6"/>
-      <c r="AR34" s="6"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2">
-        <v>27</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2761,38 +2776,40 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
     <row r="36" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B36" s="2">
-        <v>28</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2813,38 +2830,38 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
     <row r="37" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B37" s="2">
-        <v>29</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
+        <v>28</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2865,38 +2882,38 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
     <row r="38" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B38" s="2">
-        <v>30</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2917,90 +2934,109 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
+    <row r="39" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG17:AR17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="I14:L21"/>
-    <mergeCell ref="C13:H29"/>
-    <mergeCell ref="M37:AF37"/>
-    <mergeCell ref="AG38:AR38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="M38:AF38"/>
-    <mergeCell ref="I35:L38"/>
-    <mergeCell ref="C30:H38"/>
-    <mergeCell ref="AG37:AR37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="AG36:AR36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="I31:L32"/>
-    <mergeCell ref="M36:AF36"/>
-    <mergeCell ref="AG35:AR35"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="M35:AF35"/>
-    <mergeCell ref="AG34:AR34"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:AF34"/>
-    <mergeCell ref="AG33:AR33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:AF33"/>
-    <mergeCell ref="AG32:AR32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AR31"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AR30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
-    <mergeCell ref="AG29:AR29"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AR28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="I27:L28"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AR27"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AR26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="M25:AF25"/>
-    <mergeCell ref="AG25:AR25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="M24:AF24"/>
-    <mergeCell ref="AG24:AR24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="I22:L24"/>
-    <mergeCell ref="M23:AF23"/>
-    <mergeCell ref="AG23:AR23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="M22:AF22"/>
-    <mergeCell ref="AG22:AR22"/>
-    <mergeCell ref="AS22:AU22"/>
+  <mergeCells count="126">
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="AG8:AR8"/>
+    <mergeCell ref="M9:AF11"/>
+    <mergeCell ref="I9:L12"/>
+    <mergeCell ref="C9:H12"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="M20:AF20"/>
+    <mergeCell ref="AG20:AR20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="AG15:AR15"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD5:AG6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AG9:AR9"/>
+    <mergeCell ref="AG16:AR16"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="AG10:AR10"/>
+    <mergeCell ref="AG12:AR12"/>
+    <mergeCell ref="AG13:AR13"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG19:AR19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AS18:AU18"/>
     <mergeCell ref="M21:AF21"/>
     <mergeCell ref="AG21:AR21"/>
     <mergeCell ref="AS21:AU21"/>
@@ -3025,39 +3061,75 @@
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="AG10:AR10"/>
-    <mergeCell ref="AG12:AR12"/>
-    <mergeCell ref="AG13:AR13"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG19:AR19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="M20:AF20"/>
-    <mergeCell ref="AG20:AR20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AG15:AR15"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD5:AG6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AG9:AR9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="AG8:AR8"/>
-    <mergeCell ref="M9:AF11"/>
-    <mergeCell ref="I9:L12"/>
-    <mergeCell ref="C9:H12"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="AG16:AR16"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AR26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="M25:AF25"/>
+    <mergeCell ref="AG25:AR25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="M24:AF24"/>
+    <mergeCell ref="AG24:AR24"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="I22:L24"/>
+    <mergeCell ref="M23:AF23"/>
+    <mergeCell ref="AG23:AR23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="M22:AF22"/>
+    <mergeCell ref="AG22:AR22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AR30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG29:AR29"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AR28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="I27:L28"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AR27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="M35:AF35"/>
+    <mergeCell ref="AG34:AR34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="AG33:AR33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="M31:AF31"/>
+    <mergeCell ref="AG31:AR31"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="AG32:AR32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG17:AR17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="I14:L21"/>
+    <mergeCell ref="C13:H29"/>
+    <mergeCell ref="M38:AF38"/>
+    <mergeCell ref="AG39:AR39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="M39:AF39"/>
+    <mergeCell ref="I36:L39"/>
+    <mergeCell ref="C30:H39"/>
+    <mergeCell ref="AG38:AR38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="AG37:AR37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="I31:L33"/>
+    <mergeCell ref="M37:AF37"/>
+    <mergeCell ref="AG36:AR36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="M36:AF36"/>
+    <mergeCell ref="AG35:AR35"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="I35:L35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
